--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_zero.xlsx
@@ -60,22 +60,22 @@
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.0464313623348753</t>
+    <t>-5.25</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.22062995858676704</t>
+    <t>0.9</t>
   </si>
   <si>
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.9535686376651246</t>
-  </si>
-  <si>
-    <t>0.6460048307718608</t>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>0.68</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -90,37 +90,37 @@
     <t>-1 - y</t>
   </si>
   <si>
-    <t>-1.5944699515105025</t>
+    <t>-4.300000000000001</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.26285038252815807</t>
-  </si>
-  <si>
-    <t>0.936506585670788</t>
-  </si>
-  <si>
-    <t>0.1456217853197067</t>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
   <si>
     <t>-1 + y</t>
   </si>
   <si>
-    <t>-0.4055300484894975</t>
+    <t>2.3000000000000003</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.7476228142365086</t>
-  </si>
-  <si>
-    <t>0.9848508756556851</t>
-  </si>
-  <si>
-    <t>0.4258894755367635</t>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>4.5</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.04643136233487543</t>
-  </si>
-  <si>
-    <t>0.5944699515105025</t>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.8497331824764911</t>
+    <t>-44.17400000000003</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.01984482369559626</t>
-  </si>
-  <si>
-    <t>-11.984174682529822</t>
+    <t>-2.08</t>
+  </si>
+  <si>
+    <t>-77.25</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -99,12 +99,12 @@
     <t>0.23</t>
   </si>
   <si>
+    <t>1.7999999999999998</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
     <t>-1 + y</t>
   </si>
   <si>
@@ -117,10 +117,7 @@
     <t>0.58</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>4.5</t>
+    <t>8.5</t>
   </si>
   <si>
     <t>x</t>
@@ -147,7 +144,7 @@
     <t>-2.08</t>
   </si>
   <si>
-    <t>-77.25</t>
+    <t>-76.95</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -649,7 +646,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +664,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +716,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-5.25</t>
+    <t>0.8 - x</t>
+  </si>
+  <si>
+    <t>-1.8</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>0.68</t>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>-0.8 + x</t>
+  </si>
+  <si>
+    <t>-0.19999999999999996</t>
+  </si>
+  <si>
+    <t>0.96</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,37 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 - y</t>
-  </si>
-  <si>
-    <t>-4.300000000000001</t>
+    <t>1.85 - y</t>
+  </si>
+  <si>
+    <t>-2.85</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>1.7999999999999998</t>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>-1.85 + y</t>
+  </si>
+  <si>
+    <t>0.8500000000000001</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-1 + y</t>
-  </si>
-  <si>
-    <t>2.3000000000000003</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>8.5</t>
+    <t>3.7</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>3.3000000000000003</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.85</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-44.17400000000003</t>
+    <t>-9.14325</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-2.08</t>
-  </si>
-  <si>
-    <t>-76.95</t>
+    <t>-1.07</t>
+  </si>
+  <si>
+    <t>-34.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -646,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -664,18 +667,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -693,12 +696,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -716,17 +719,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__M_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>0.8 - x</t>
-  </si>
-  <si>
-    <t>-1.8</t>
+    <t>1.9 - x</t>
+  </si>
+  <si>
+    <t>-2.9</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>-0.8 + x</t>
-  </si>
-  <si>
-    <t>-0.19999999999999996</t>
-  </si>
-  <si>
-    <t>0.96</t>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>-1.9 + x</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>0.08</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,37 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>1.85 - y</t>
-  </si>
-  <si>
-    <t>-2.85</t>
+    <t>0.1499999999999999 - y</t>
+  </si>
+  <si>
+    <t>-1.15</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>-1.85 + y</t>
-  </si>
-  <si>
-    <t>0.8500000000000001</t>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-0.15000000000000002 + y</t>
+  </si>
+  <si>
+    <t>-0.85</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3.7</t>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>8.5</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1.85</t>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>0.15</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-9.14325</t>
+    <t>-0.39675000000000005</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.07</t>
-  </si>
-  <si>
-    <t>-34.0</t>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>-9.2</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -649,7 +646,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +664,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +716,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
